--- a/variability metadata.xlsx
+++ b/variability metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/summer2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C2A59C-48AF-9744-8D36-601CE4197AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD72F53-2872-5248-955C-D5CC4AB35446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{6BFC6FC5-5213-6546-AFED-C42FCE96236D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>study id</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>variation category</t>
+  </si>
+  <si>
+    <t>cooper_2010</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>acclimation</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>thermal performance</t>
+  </si>
+  <si>
+    <t>org level</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>fecundity</t>
+  </si>
+  <si>
+    <t>geographic origin</t>
+  </si>
+  <si>
+    <t>they didn't find any differences between geographic locations in thermal performance range</t>
+  </si>
+  <si>
+    <t>temp range</t>
+  </si>
+  <si>
+    <t>mean of 25 or 18 C</t>
   </si>
 </sst>
 </file>
@@ -409,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F1B9DB-E956-9840-8A22-A19B07644F01}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,71 +461,112 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
